--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl5-Ccr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl5-Ccr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H2">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,33 +555,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05887966666666667</v>
+        <v>0.04581866666666667</v>
       </c>
       <c r="N2">
-        <v>0.176639</v>
+        <v>0.137456</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4376255591461182</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4376255591461182</v>
       </c>
       <c r="Q2">
-        <v>0.100589198218</v>
+        <v>0.01562524970844444</v>
       </c>
       <c r="R2">
-        <v>0.905302783962</v>
+        <v>0.140627247376</v>
       </c>
       <c r="S2">
-        <v>0.09367635209466295</v>
+        <v>0.008097497291417783</v>
       </c>
       <c r="T2">
-        <v>0.09367635209466295</v>
+        <v>0.008097497291417781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.842846333333334</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H3">
-        <v>11.528539</v>
+        <v>1.023071</v>
       </c>
       <c r="I3">
-        <v>0.210715743495333</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J3">
-        <v>0.2107157434953329</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,33 +617,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05887966666666667</v>
+        <v>0.05887966666666666</v>
       </c>
       <c r="N3">
         <v>0.176639</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.5623744408538818</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5623744408538818</v>
       </c>
       <c r="Q3">
-        <v>0.2262655111578889</v>
+        <v>0.02007935981877777</v>
       </c>
       <c r="R3">
-        <v>2.036389600421</v>
+        <v>0.180714238369</v>
       </c>
       <c r="S3">
-        <v>0.210715743495333</v>
+        <v>0.01040575765378554</v>
       </c>
       <c r="T3">
-        <v>0.2107157434953329</v>
+        <v>0.01040575765378554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,25 +652,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4572023333333333</v>
+        <v>3.842846333333334</v>
       </c>
       <c r="H4">
-        <v>1.371607</v>
+        <v>11.528539</v>
       </c>
       <c r="I4">
-        <v>0.02506988862928798</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J4">
-        <v>0.02506988862928798</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05887966666666667</v>
+        <v>0.04581866666666667</v>
       </c>
       <c r="N4">
-        <v>0.176639</v>
+        <v>0.137456</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.4376255591461182</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.4376255591461182</v>
       </c>
       <c r="Q4">
-        <v>0.02691992098588889</v>
+        <v>0.1760740951982222</v>
       </c>
       <c r="R4">
-        <v>0.242279288873</v>
+        <v>1.584666856784</v>
       </c>
       <c r="S4">
-        <v>0.02506988862928798</v>
+        <v>0.09124715032143839</v>
       </c>
       <c r="T4">
-        <v>0.02506988862928798</v>
+        <v>0.09124715032143836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.228676</v>
+        <v>3.842846333333334</v>
       </c>
       <c r="H5">
-        <v>36.68602799999999</v>
+        <v>11.528539</v>
       </c>
       <c r="I5">
-        <v>0.670538015780716</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J5">
-        <v>0.670538015780716</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,276 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05887966666666667</v>
+        <v>0.05887966666666666</v>
       </c>
       <c r="N5">
         <v>0.176639</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.5623744408538818</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5623744408538818</v>
       </c>
       <c r="Q5">
-        <v>0.7200203666546666</v>
+        <v>0.2262655111578889</v>
       </c>
       <c r="R5">
-        <v>6.480183299891999</v>
+        <v>2.036389600421</v>
       </c>
       <c r="S5">
-        <v>0.670538015780716</v>
+        <v>0.1172579253406803</v>
       </c>
       <c r="T5">
-        <v>0.670538015780716</v>
+        <v>0.1172579253406803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.2092423333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.627727</v>
+      </c>
+      <c r="I6">
+        <v>0.0113530661283407</v>
+      </c>
+      <c r="J6">
+        <v>0.0113530661283407</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.04581866666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.137456</v>
+      </c>
+      <c r="O6">
+        <v>0.4376255591461182</v>
+      </c>
+      <c r="P6">
+        <v>0.4376255591461182</v>
+      </c>
+      <c r="Q6">
+        <v>0.009587204723555556</v>
+      </c>
+      <c r="R6">
+        <v>0.086284842512</v>
+      </c>
+      <c r="S6">
+        <v>0.004968391912437955</v>
+      </c>
+      <c r="T6">
+        <v>0.004968391912437954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.2092423333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.627727</v>
+      </c>
+      <c r="I7">
+        <v>0.0113530661283407</v>
+      </c>
+      <c r="J7">
+        <v>0.0113530661283407</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.05887966666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.176639</v>
+      </c>
+      <c r="O7">
+        <v>0.5623744408538818</v>
+      </c>
+      <c r="P7">
+        <v>0.5623744408538818</v>
+      </c>
+      <c r="Q7">
+        <v>0.01232011883922222</v>
+      </c>
+      <c r="R7">
+        <v>0.110881069553</v>
+      </c>
+      <c r="S7">
+        <v>0.006384674215902746</v>
+      </c>
+      <c r="T7">
+        <v>0.006384674215902746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>14.03735666666667</v>
+      </c>
+      <c r="H8">
+        <v>42.11207</v>
+      </c>
+      <c r="I8">
+        <v>0.7616386032643372</v>
+      </c>
+      <c r="J8">
+        <v>0.7616386032643372</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04581866666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.137456</v>
+      </c>
+      <c r="O8">
+        <v>0.4376255591461182</v>
+      </c>
+      <c r="P8">
+        <v>0.4376255591461182</v>
+      </c>
+      <c r="Q8">
+        <v>0.6431729659911112</v>
+      </c>
+      <c r="R8">
+        <v>5.78855669392</v>
+      </c>
+      <c r="S8">
+        <v>0.3333125196208241</v>
+      </c>
+      <c r="T8">
+        <v>0.333312519620824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>14.03735666666667</v>
+      </c>
+      <c r="H9">
+        <v>42.11207</v>
+      </c>
+      <c r="I9">
+        <v>0.7616386032643372</v>
+      </c>
+      <c r="J9">
+        <v>0.7616386032643372</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05887966666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.176639</v>
+      </c>
+      <c r="O9">
+        <v>0.5623744408538818</v>
+      </c>
+      <c r="P9">
+        <v>0.5623744408538818</v>
+      </c>
+      <c r="Q9">
+        <v>0.8265148814144444</v>
+      </c>
+      <c r="R9">
+        <v>7.43863393273</v>
+      </c>
+      <c r="S9">
+        <v>0.4283260836435131</v>
+      </c>
+      <c r="T9">
+        <v>0.4283260836435131</v>
       </c>
     </row>
   </sheetData>
